--- a/res/database/metadata/campos_sinasc.xlsx
+++ b/res/database/metadata/campos_sinasc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fernando\Cloud\GoogleDrive\Colab Notebooks\analise_exploratoria\res\database\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3237E873-A53D-44F6-94C2-0D36E14336D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16971D10-DFFD-4071-8A82-2A064CD95B39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8964" xr2:uid="{1E06D4E8-0281-45C3-BEE5-035A4683307E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="88">
   <si>
     <t>NUMERODN</t>
   </si>
@@ -272,6 +272,30 @@
   </si>
   <si>
     <t>1: Sim; 2: Não</t>
+  </si>
+  <si>
+    <t>TIPO1</t>
+  </si>
+  <si>
+    <t>TIPO2</t>
+  </si>
+  <si>
+    <t>Qualitativa</t>
+  </si>
+  <si>
+    <t>Quantitativa</t>
+  </si>
+  <si>
+    <t>Nominal</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
+  </si>
+  <si>
+    <t>Discreto</t>
+  </si>
+  <si>
+    <t>Contínua</t>
   </si>
 </sst>
 </file>
@@ -627,19 +651,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D511CE80-3169-47DE-80D8-1FEBB9E07EB6}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -652,8 +679,14 @@
       <c r="D1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -663,8 +696,14 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -677,40 +716,70 @@
       <c r="D3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -723,8 +792,14 @@
       <c r="D8">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -737,8 +812,14 @@
       <c r="D9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -748,40 +829,70 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -794,8 +905,14 @@
       <c r="D15">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -808,8 +925,14 @@
       <c r="D16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -822,8 +945,14 @@
       <c r="D17" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -836,8 +965,14 @@
       <c r="D18" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -847,16 +982,28 @@
       <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -866,8 +1013,14 @@
       <c r="C21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -877,8 +1030,14 @@
       <c r="C22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -888,8 +1047,14 @@
       <c r="C23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -899,8 +1064,14 @@
       <c r="C24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -910,8 +1081,14 @@
       <c r="C25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -924,8 +1101,14 @@
       <c r="D26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -935,37 +1118,67 @@
       <c r="C27" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>60</v>
       </c>
       <c r="B28" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>62</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>64</v>
       </c>
       <c r="B30" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/res/database/metadata/campos_sinasc.xlsx
+++ b/res/database/metadata/campos_sinasc.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fernando\Cloud\GoogleDrive\Colab Notebooks\analise_exploratoria\res\database\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16971D10-DFFD-4071-8A82-2A064CD95B39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720EC0A3-FA49-48EA-8E38-42776A88544F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8964" xr2:uid="{1E06D4E8-0281-45C3-BEE5-035A4683307E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1E06D4E8-0281-45C3-BEE5-035A4683307E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
   <si>
     <t>NUMERODN</t>
   </si>
@@ -296,6 +299,9 @@
   </si>
   <si>
     <t>Contínua</t>
+  </si>
+  <si>
+    <t>Contínuo</t>
   </si>
 </sst>
 </file>
@@ -653,15 +659,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D511CE80-3169-47DE-80D8-1FEBB9E07EB6}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="53.44140625" customWidth="1"/>
     <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -776,7 +782,7 @@
         <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1082,7 +1088,7 @@
         <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>87</v>
@@ -1182,6 +1188,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{1C07C476-DEB8-4DF2-987A-0A5CEFDCC49A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>